--- a/Final Report/Tables/Table 3.2 Catch and Management history.xlsx
+++ b/Final Report/Tables/Table 3.2 Catch and Management history.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC9139-54E3-4A3C-8F5C-F78DBEEC8470}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21C032-61CF-4A4F-88D5-D34885AE75CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -82,13 +82,10 @@
     <t>Pot fishing begins in the GOA.</t>
   </si>
   <si>
-    <t>ACT set below ABC based on AP recommendation.</t>
-  </si>
-  <si>
-    <t>OFL changed to Alaska-wide.</t>
-  </si>
-  <si>
     <t>% ABC removed</t>
+  </si>
+  <si>
+    <t>OFL changed to Alaska-wide. ACT set below ABC based on AP recommendation.</t>
   </si>
 </sst>
 </file>
@@ -518,28 +515,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:R48"/>
+  <dimension ref="D2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="2"/>
-    <col min="4" max="4" width="6.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="2" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="6.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="2" customWidth="1"/>
     <col min="8" max="8" width="8" style="2" customWidth="1"/>
-    <col min="9" max="13" width="8.85546875" style="2"/>
-    <col min="14" max="14" width="16.28515625" style="2" customWidth="1"/>
-    <col min="15" max="17" width="8.85546875" style="2"/>
-    <col min="18" max="18" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="2"/>
+    <col min="9" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="16.33203125" style="2" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" style="2"/>
+    <col min="18" max="18" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
@@ -564,7 +561,7 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="4:14" s="11" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:14" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="4">
         <v>1980</v>
       </c>
@@ -585,7 +582,7 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D4" s="4">
         <v>1981</v>
       </c>
@@ -604,7 +601,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D5" s="4">
         <v>1982</v>
       </c>
@@ -623,7 +620,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" s="4">
         <v>1983</v>
       </c>
@@ -642,7 +639,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7" s="4">
         <v>1984</v>
       </c>
@@ -661,7 +658,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="4:14" s="11" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:14" s="11" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="4">
         <v>1985</v>
       </c>
@@ -682,7 +679,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
-    <row r="9" spans="4:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4">
         <v>1986</v>
       </c>
@@ -703,7 +700,7 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
     </row>
-    <row r="10" spans="4:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="4">
         <v>1987</v>
       </c>
@@ -724,7 +721,7 @@
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
     </row>
-    <row r="11" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>1988</v>
       </c>
@@ -745,7 +742,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="4:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <v>1989</v>
       </c>
@@ -768,7 +765,7 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" spans="4:14" s="11" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:14" s="11" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>1990</v>
       </c>
@@ -791,7 +788,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D14" s="4">
         <v>1991</v>
       </c>
@@ -812,7 +809,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="4:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="4">
         <v>1992</v>
       </c>
@@ -837,7 +834,7 @@
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
     </row>
-    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D16" s="4">
         <v>1993</v>
       </c>
@@ -860,7 +857,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="4">
         <v>1994</v>
       </c>
@@ -883,7 +880,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="4:14" s="11" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:14" s="11" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
         <v>1995</v>
       </c>
@@ -908,7 +905,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="4:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4">
         <v>1996</v>
       </c>
@@ -933,7 +930,7 @@
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="4:14" s="11" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:14" s="11" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <v>1997</v>
       </c>
@@ -958,7 +955,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="4">
         <v>1998</v>
       </c>
@@ -981,7 +978,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="4">
         <v>1999</v>
       </c>
@@ -1004,7 +1001,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="4">
         <v>2000</v>
       </c>
@@ -1027,7 +1024,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="4">
         <v>2001</v>
       </c>
@@ -1050,7 +1047,7 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="4">
         <v>2002</v>
       </c>
@@ -1073,7 +1070,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="4">
         <v>2003</v>
       </c>
@@ -1096,7 +1093,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="4">
         <v>2004</v>
       </c>
@@ -1119,7 +1116,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="4">
         <v>2005</v>
       </c>
@@ -1142,7 +1139,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="4">
         <v>2006</v>
       </c>
@@ -1165,7 +1162,7 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="4">
         <v>2007</v>
       </c>
@@ -1188,7 +1185,7 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="4:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="4">
         <v>2008</v>
       </c>
@@ -1213,7 +1210,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="4">
         <v>2009</v>
       </c>
@@ -1236,7 +1233,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D33" s="4">
         <v>2010</v>
       </c>
@@ -1259,7 +1256,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D34" s="4">
         <v>2011</v>
       </c>
@@ -1282,7 +1279,7 @@
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D35" s="4">
         <v>2012</v>
       </c>
@@ -1305,7 +1302,7 @@
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D36" s="4">
         <v>2013</v>
       </c>
@@ -1328,7 +1325,7 @@
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D37" s="4">
         <v>2014</v>
       </c>
@@ -1351,7 +1348,7 @@
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
     </row>
-    <row r="38" spans="4:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="4">
         <v>2015</v>
       </c>
@@ -1376,7 +1373,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="4:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="4">
         <v>2016</v>
       </c>
@@ -1401,7 +1398,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="4:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="4">
         <v>2017</v>
       </c>
@@ -1426,10 +1423,10 @@
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
       <c r="R40" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D41" s="4">
         <v>2018</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>0.94666666666666666</v>
       </c>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D42" s="4">
         <v>2019</v>
       </c>
@@ -1483,7 +1480,7 @@
         <v>1.0993377483443709</v>
       </c>
     </row>
-    <row r="43" spans="4:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="4">
         <v>2020</v>
       </c>
@@ -1500,7 +1497,7 @@
         <v>18300</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -1512,7 +1509,7 @@
         <v>0.86363636363636365</v>
       </c>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D44" s="4">
         <v>2021</v>
       </c>
@@ -1539,7 +1536,7 @@
         <v>0.71959459459459463</v>
       </c>
     </row>
-    <row r="45" spans="4:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="4">
         <v>2022</v>
       </c>
@@ -1555,9 +1552,7 @@
       <c r="H45" s="3">
         <v>34500</v>
       </c>
-      <c r="I45" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="I45" s="15"/>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
@@ -1568,7 +1563,7 @@
         <v>0.77971014492753621</v>
       </c>
     </row>
-    <row r="46" spans="4:18" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:20" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="14">
         <v>2023</v>
       </c>
@@ -1590,8 +1585,16 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="4:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="2">
+        <f t="shared" si="0"/>
+        <v>0.61728395061728392</v>
+      </c>
+      <c r="T46" s="2">
+        <f>AVERAGE(R44:R46)</f>
+        <v>0.70552956337980488</v>
+      </c>
+    </row>
+    <row r="47" spans="4:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>2024</v>
       </c>
@@ -1618,7 +1621,7 @@
         <v>0.39490445859872614</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
